--- a/data/SSW_popn structure_042016.xlsx
+++ b/data/SSW_popn structure_042016.xlsx
@@ -24,9 +24,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="7" r:id="rId6"/>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="179">
   <si>
     <t>Individual</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>n = 2010</t>
+  </si>
+  <si>
+    <t>n = 71</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -643,9 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3217,7 +3220,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3320,7 +3323,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3427,7 +3430,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -11140,7 +11143,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11786,7 +11789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>147</v>
       </c>
@@ -11796,8 +11799,11 @@
       <c r="C20" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>173</v>
       </c>
@@ -11809,21 +11815,29 @@
         <f>2010*B21</f>
         <v>405.81191432396253</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="10">
+        <f>ROUND(B21*71,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="11">
-        <f t="shared" ref="B22:B34" si="3">AVERAGE(D3,I3,N3)</f>
+        <f t="shared" ref="B22:B33" si="3">AVERAGE(D3,I3,N3)</f>
         <v>0.10023731288791531</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" ref="C22:C34" si="4">2010*B22</f>
         <v>201.47699890470977</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:D34" si="5">ROUND(B22*71,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>157</v>
       </c>
@@ -11835,8 +11849,12 @@
         <f t="shared" si="4"/>
         <v>91.773366192040896</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>150</v>
       </c>
@@ -11848,8 +11866,12 @@
         <f t="shared" si="4"/>
         <v>67.338383838383848</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>151</v>
       </c>
@@ -11861,8 +11883,12 @@
         <f t="shared" si="4"/>
         <v>62.69477911646586</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>152</v>
       </c>
@@ -11874,8 +11900,12 @@
         <f t="shared" si="4"/>
         <v>61.657204575879263</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -11887,8 +11917,12 @@
         <f t="shared" si="4"/>
         <v>92.810940732627472</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>154</v>
       </c>
@@ -11900,8 +11934,12 @@
         <f t="shared" si="4"/>
         <v>468.79615431422661</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="10">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>169</v>
       </c>
@@ -11913,8 +11951,12 @@
         <f t="shared" si="4"/>
         <v>39.444140197152244</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>158</v>
       </c>
@@ -11926,8 +11968,12 @@
         <f t="shared" si="4"/>
         <v>62.40531824266764</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>159</v>
       </c>
@@ -11939,8 +11985,12 @@
         <f t="shared" si="4"/>
         <v>47.347237434586823</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>168</v>
       </c>
@@ -11952,8 +12002,12 @@
         <f t="shared" si="4"/>
         <v>78.429627601314351</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>160</v>
       </c>
@@ -11965,8 +12019,12 @@
         <f t="shared" si="4"/>
         <v>83.821345990020689</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>161</v>
       </c>
@@ -11977,6 +12035,10 @@
       <c r="C34" s="12">
         <f t="shared" si="4"/>
         <v>246.19258853596202</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
